--- a/mapping/BFO_OSMO.xlsx
+++ b/mapping/BFO_OSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>BFO_IRI</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>OSMO_DESC</t>
+  </si>
+  <si>
+    <t>OSMO_DEF</t>
   </si>
 </sst>
 </file>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,6 +405,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
